--- a/Documentatie/Bewijskaart Template.xlsx
+++ b/Documentatie/Bewijskaart Template.xlsx
@@ -778,38 +778,190 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -818,22 +970,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -846,154 +982,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3204,490 +3204,490 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="M2" s="10"/>
+      <c r="K2" s="62"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="31"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33" t="str">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="str">
         <f>IF('[1]Algemene Informatie'!$B$3=0,"",'[1]Algemene Informatie'!$B$3&amp;", "&amp;'[1]Algemene Informatie'!$B$4&amp;" ("&amp;'[1]Algemene Informatie'!$B$5&amp;")"&amp;" "&amp;'[1]Algemene Informatie'!$B$13)</f>
         <v xml:space="preserve">Steven Logghe, Patrick Batenburg (Groep 2) </v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="39"/>
-      <c r="O6" s="40"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="48"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="33" t="str">
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="35" t="str">
         <f>IF('[1]Algemene Informatie'!B17=0,"",'[1]Algemene Informatie'!B17)</f>
         <v>Rio4-Apo3A</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="44"/>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="33" t="str">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="str">
         <f>IF('[1]Algemene Informatie'!$B$28=0,"",'[1]Algemene Informatie'!$B$28)</f>
         <v>Samen Sterk</v>
       </c>
-      <c r="E8" s="34"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33" t="str">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35" t="str">
         <f>IF('[1]Algemene Informatie'!$B$18=0,"",'[1]Algemene Informatie'!$B$18)</f>
         <v>Fer van Krimpen</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="36" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="33" t="str">
+      <c r="H9" s="37"/>
+      <c r="I9" s="35" t="str">
         <f>IF('[1]Algemene Informatie'!$B$32=0,"",'[1]Algemene Informatie'!$B$32)</f>
         <v>Janneke v. Aert</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="34"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="36"/>
     </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+    <row r="10" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="55"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="58"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="60" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63" t="s">
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="69"/>
-      <c r="Z18" s="70" t="str">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="Z18" s="13" t="str">
         <f t="shared" ref="Z18:Z27" si="0">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)</f>
         <v>AO_</v>
       </c>
-      <c r="AA18" s="70" t="str">
+      <c r="AA18" s="13" t="str">
         <f t="shared" ref="AA18:AA27" si="1">OplAfk&amp;"_"&amp;LEFT($A18,1)&amp;MID($A18,3,1)&amp;LEFT($G18,1)</f>
         <v>AO_</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="Z19" s="70" t="str">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="Z19" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA19" s="70" t="str">
+      <c r="AA19" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="Z20" s="70" t="str">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="Z20" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA20" s="70" t="str">
+      <c r="AA20" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-      <c r="Z21" s="70" t="str">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="Z21" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA21" s="70" t="str">
+      <c r="AA21" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="69"/>
-      <c r="Z22" s="70" t="str">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="Z22" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA22" s="70" t="str">
+      <c r="AA22" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="69"/>
-      <c r="Z23" s="70" t="str">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="Z23" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA23" s="70" t="str">
+      <c r="AA23" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="69"/>
-      <c r="Z24" s="70" t="str">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="Z24" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA24" s="70" t="str">
+      <c r="AA24" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="69"/>
-      <c r="Z25" s="70" t="str">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="Z25" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA25" s="70" t="str">
+      <c r="AA25" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="69"/>
-      <c r="Z26" s="70" t="str">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="Z26" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA26" s="70" t="str">
+      <c r="AA26" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="Z27" s="70" t="str">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="Z27" s="13" t="str">
         <f t="shared" si="0"/>
         <v>AO_</v>
       </c>
-      <c r="AA27" s="70" t="str">
+      <c r="AA27" s="13" t="str">
         <f t="shared" si="1"/>
         <v>AO_</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
@@ -3700,54 +3700,18 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="70"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
     </row>
   </sheetData>
   <sheetProtection password="CFEB" sheet="1" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="58">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
@@ -3758,12 +3722,48 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="A2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J18:J27">
